--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1830397.401272199</v>
+        <v>-1788241.311077527</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11069885.09030666</v>
+        <v>11078499.44152101</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>415.9547744569376</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>94.06821914862122</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>113.517685436944</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>1.757486152798669</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.00377606262818</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.5122002751354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>334.7904578545313</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>24.45525524223535</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1114,7 +1114,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>25.68008452176533</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>267.519256446103</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>34.7831602542068</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>192.6885925717419</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800581</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>67.38189607138966</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561551</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1534,10 +1534,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F13" t="n">
-        <v>14.14416275345378</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1607,25 +1607,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1667,13 +1667,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>53.06991172717014</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>168.6160409848426</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,16 +2138,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2327,7 +2327,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2479,22 +2479,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>46.45303019605524</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>14.14416275345333</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>14.14416275345335</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>107.3792913045956</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2956,19 +2956,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>151.5162869994148</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3089,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930495</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.7042731591133</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432373</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>1340.192707784766</v>
       </c>
       <c r="C2" t="n">
-        <v>449.961607123969</v>
+        <v>920.0363699494758</v>
       </c>
       <c r="D2" t="n">
-        <v>418.0922263388176</v>
+        <v>888.1669891643244</v>
       </c>
       <c r="E2" t="n">
-        <v>418.0922263388176</v>
+        <v>459.5853149015927</v>
       </c>
       <c r="F2" t="n">
-        <v>418.0922263388176</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1362.45187422927</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1362.45187422927</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>1362.45187422927</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>1362.45187422927</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4404,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4087263891149</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4087263891149</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,49 +4489,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X4" t="n">
-        <v>466.2711264523757</v>
+        <v>884.1402362442279</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4087263891149</v>
+        <v>656.7205655583361</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.2911052642175</v>
+        <v>1267.369653817652</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1890364880448</v>
+        <v>829.2271810010749</v>
       </c>
       <c r="D5" t="n">
-        <v>489.3196557028934</v>
+        <v>797.3578002159235</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>363.5830553742186</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>339.7560298238304</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.7560298238304</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.62587526704672</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704672</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1112.375769149668</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1189.145706210981</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1189.145706210981</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1189.145706210981</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1189.145706210981</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640685</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599279</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352336</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352336</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2311.226536225375</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2052.004233542391</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.83205389135</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1713.017003342787</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1293.874539922098</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1289.628820262155</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583395</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.3411590949818</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.250870241535</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684887</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.7466171846503</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.36152745083425</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704672</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.68954842750433</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>401.2478733937166</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>1027.74307982342</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1027.74307982342</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588819</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.5053801183834</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.486327814413</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.1879988019969</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704672</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704672</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.3843298381823</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>743.5942116061434</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1203.078078787056</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.006131170482</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140824</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352336</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2531.293763352336</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2372.052394650333</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2126.172948228788</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1847.739947481893</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1560.784439352323</v>
       </c>
       <c r="W7" t="n">
-        <v>679.3168054708626</v>
+        <v>1288.758034938615</v>
       </c>
       <c r="X7" t="n">
-        <v>433.9250508042751</v>
+        <v>1043.366280272028</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.5053801183834</v>
+        <v>815.9466095861358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.3238179760524</v>
+        <v>866.1045910388293</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2217491998797</v>
+        <v>427.9621182222527</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1662.048924773138</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1402.826622090155</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1402.826622090155</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>997.971167501188</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>982.8691081209028</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>978.6233884609602</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5053801183834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1481.130666794131</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1202.697666047236</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>915.7421579176664</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>643.715753503958</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>398.3239988373705</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3239988373705</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1424.094121422147</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>985.9516486055704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>550.0418637800149</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>481.9793424957829</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>481.9793424957829</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>80.58151111904677</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904677</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K11" t="n">
-        <v>80.16472174618677</v>
+        <v>557.2627364873787</v>
       </c>
       <c r="L11" t="n">
-        <v>80.16472174618677</v>
+        <v>1632.322702740238</v>
       </c>
       <c r="M11" t="n">
-        <v>492.0552635849232</v>
+        <v>1632.322702740238</v>
       </c>
       <c r="N11" t="n">
-        <v>1484.093695193985</v>
+        <v>2758.053686176685</v>
       </c>
       <c r="O11" t="n">
-        <v>2464.273361764291</v>
+        <v>3738.233352746991</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597687</v>
+        <v>4566.543227580388</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556282</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309338</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493175</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366214</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.294683683231</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3082.677733617057</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2677.822279028091</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2258.679815607401</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1850.393691907055</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374796</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741219</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206751</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476288</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637904</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299743</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>80.16472174618677</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>80.16472174618677</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>80.16472174618677</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>80.16472174618677</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>80.16472174618677</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>80.16472174618677</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>265.7696000193824</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.77040200398</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991419</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380219</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.240737869171</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>595.6790263523959</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>429.8010335539186</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>260.0430298046559</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203591</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108766</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820122</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499733</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.28569523081</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>1991.852694483915</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.897186354346</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.870781940637</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.47902727405</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>960.0593565881582</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5346,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5452,7 +5452,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q16" t="n">
         <v>2718.920450173579</v>
@@ -5473,13 +5473,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5583,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>407.7542895545774</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,43 +5738,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722818</v>
@@ -5786,16 +5786,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5820,31 +5820,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5941,19 +5941,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>282.1391483292483</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>116.5478733550759</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>116.5478733550759</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6184,13 +6184,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6212,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>282.1391483292483</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>116.5478733550759</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6421,13 +6421,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E31" t="n">
-        <v>407.7542895545774</v>
+        <v>509.55881901514</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6664,7 +6664,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6850,7 +6850,7 @@
         <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832281</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6871,34 +6871,34 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.64750088558</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825367</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
@@ -6935,16 +6935,16 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>97.56670367581785</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M35" t="n">
-        <v>1228.461808239092</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N35" t="n">
         <v>2354.192791675539</v>
@@ -6962,25 +6962,25 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7072,22 +7072,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716792</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463116</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850154</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
         <v>97.56670367581785</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581786</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581786</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239093</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
         <v>905.6649082936674</v>
@@ -7327,31 +7327,31 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758679</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7394,7 +7394,7 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
         <v>755.2952747835855</v>
@@ -7403,40 +7403,40 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581783</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581783</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239091</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581783</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581783</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581783</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239091</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581783</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7801,16 +7801,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7825,13 +7825,13 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
@@ -7840,10 +7840,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8052,28 +8052,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.823440838084</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102383</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.823440838084</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,31 +8289,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.823440838084</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>28.49579817779863</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.9805436479919</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8690,16 +8690,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>459.5978749662617</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623601</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827335</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.47967502343</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M35" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437652</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>747.7485021910729</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11315,7 +11315,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>463.0908366609701</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>130.6621837640379</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>245.4730951285677</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>362.0551013218981</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.220053416764699</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>73.62918697961808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>23.42369649844656</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>881478.6666418266</v>
+        <v>732165.4051906466</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>962786.3961896197</v>
+        <v>971340.4925448147</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>962786.3961896197</v>
+        <v>972763.5978357536</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>817737.5791955695</v>
+        <v>975756.2649592067</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>975756.2649592069</v>
+        <v>975756.2649592067</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>975756.2649592069</v>
+        <v>975756.2649592067</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>975756.2649592066</v>
+        <v>975756.2649592067</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>975756.2649592067</v>
+        <v>975756.2649592069</v>
       </c>
     </row>
     <row r="12">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246186</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106456</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725242</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471865</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.3270633818</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143549</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978834</v>
+        <v>137577.7007378521</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341197</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167177.9510711174</v>
+        <v>118479.0404528104</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154526.7187594519</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>45725.81943247915</v>
+        <v>54561.82510962266</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962267</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962269</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962273</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962276</v>
@@ -26448,16 +26448,16 @@
         <v>59904.18292625602</v>
       </c>
       <c r="M4" t="n">
+        <v>68372.72551926988</v>
+      </c>
+      <c r="N4" t="n">
+        <v>68372.72551926988</v>
+      </c>
+      <c r="O4" t="n">
         <v>68372.72551926991</v>
       </c>
-      <c r="N4" t="n">
-        <v>68372.72551926992</v>
-      </c>
-      <c r="O4" t="n">
-        <v>68372.72551926989</v>
-      </c>
       <c r="P4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926988</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.2652029555</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710194</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826066</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-368794.0398680497</v>
+        <v>-320424.5878083126</v>
       </c>
       <c r="C6" t="n">
-        <v>-253121.4677883868</v>
+        <v>-293999.1333548693</v>
       </c>
       <c r="D6" t="n">
-        <v>-253121.4677883868</v>
+        <v>-232999.0220086114</v>
       </c>
       <c r="E6" t="n">
-        <v>-279158.3780321053</v>
+        <v>-314658.3972758477</v>
       </c>
       <c r="F6" t="n">
-        <v>-211418.9694201339</v>
+        <v>-132303.2880547978</v>
       </c>
       <c r="G6" t="n">
-        <v>-132280.0637154153</v>
+        <v>-132303.2880547979</v>
       </c>
       <c r="H6" t="n">
-        <v>-132280.0637154153</v>
+        <v>-132303.2880547979</v>
       </c>
       <c r="I6" t="n">
-        <v>-132280.0637154153</v>
+        <v>-132303.2880547979</v>
       </c>
       <c r="J6" t="n">
-        <v>-243294.5290604054</v>
+        <v>-243317.7533997881</v>
       </c>
       <c r="K6" t="n">
-        <v>-132280.0637154153</v>
+        <v>-185971.6151181797</v>
       </c>
       <c r="L6" t="n">
-        <v>-151975.9097355146</v>
+        <v>-160756.0834259522</v>
       </c>
       <c r="M6" t="n">
-        <v>-273246.761643243</v>
+        <v>-281466.0409832117</v>
       </c>
       <c r="N6" t="n">
-        <v>-211537.5405187716</v>
+        <v>-143888.3402453596</v>
       </c>
       <c r="O6" t="n">
-        <v>-143888.3402453595</v>
+        <v>-143888.3402453596</v>
       </c>
       <c r="P6" t="n">
         <v>-143888.3402453596</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,22 +26790,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.823440838084</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827335</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179797</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977293</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072302</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574107</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179797</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977293</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702082</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574109</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179797</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977293</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072302</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574107</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>17.80627363147335</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>172.6534501503096</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>241.180350967123</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.1416979164046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.5243745049233</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>24.20032271098046</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>165.4451772895619</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>243.626055847806</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>154.5173183339556</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>183.083394601485</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>50.73205938558741</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28144,19 +28144,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.268718444782585e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-2.024359600314816e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-4.39598348689247e-13</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30654,7 +30654,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="P43" t="n">
         <v>16.23571033874737</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,10 +34708,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34772,28 +34772,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34875,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.823440838084</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102383</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.823440838084</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632083</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.823440838084</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>28.49579817779863</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.9805436479919</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>459.5978749662617</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623601</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827335</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.47967502343</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132075</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35820,10 +35820,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M35" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437652</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>747.7485021910729</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778284</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37707,13 +37707,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37953,10 +37953,10 @@
         <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>463.0908366609701</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,13 +38187,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
